--- a/Data/Brooke_data.xlsx
+++ b/Data/Brooke_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\UMBC Study\RA\Stance Detection\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6C08D894-7D46-4098-B2B3-6C2CB9A06638}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B37FA97-AC2D-4730-BA71-2ED5F09CBC90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{62DC7FB7-01C8-4326-82E0-844198897E22}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="320">
   <si>
     <t>username</t>
   </si>
@@ -704,6 +704,368 @@
   </si>
   <si>
     <t>Unsupportive</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>"What the wage hike amounts to, then, is a gift from management. Amazon workers donâ€™t need gifts when itâ€™s convenient for Amazon; they need the ability to negotiate these things for themselves, on their own terms."
+https://t.co/ctFrmR6Vjd
+#Amazon15 #AmazonHQ2 #FightFor15 #1u</t>
+  </si>
+  <si>
+    <t>'In it to win it': Edmonton puts in bid for new Amazon headquarters. #yeg #AmazonHQ2 https://t.co/9aJy66s3fy https://t.co/YnNCsP9kW6</t>
+  </si>
+  <si>
+    <t>Entrepreneur: These 5 Cities Pulled Out All the Stops to Get #AmazonHQ2. They Didn't Make the Cut, But We Salute the Attempt. | by NinaZipkin https://t.co/efSHAc7y7S #entrepreneur #smallbiz #ersloanguy</t>
+  </si>
+  <si>
+    <t>Listen to the experts ðŸ‘‡ðŸ‘‡ #TriangleDelivers #AmazonHQ2 #Raleigh #Top20 https://t.co/P1mkVCufVZ</t>
+  </si>
+  <si>
+    <t>So, Amazon has spoken: while NYC is quite logical, Northern Virginia sounds a bit odd...
+#Amazon #AmazonHQ2 #NYC https://t.co/XbokUpiDYQ</t>
+  </si>
+  <si>
+    <t>@laurastevens Toronto #AmazonHQ2 #WeTheNorth</t>
+  </si>
+  <si>
+    <t>Retired #BofA CEO Hugh McColl lobbies Jeff Bezos, worries #HB2 hurts #AmazonHQ2 pitch https://t.co/ykImqzWjHJ</t>
+  </si>
+  <si>
+    <t>#KC is number 1 on the list https://t.co/g8iSHXQ47f #AmazonHQ2 #Amazon @amazon</t>
+  </si>
+  <si>
+    <t>After months of secrecy, #NewYorkCity has become the 82nd municipality to release its #AmazonHQ2 bid https://t.co/cs0WmR6Qbs https://t.co/V35jKh6wVz</t>
+  </si>
+  <si>
+    <t>Amazon narrows the field in its search for a second headquarters to 20 finalists from among 238 proposals. 
+Which community do you think will win Amazon's HQ2? Vote in the poll in story: https://t.co/wtJv0LwNYZ #AmazonHQ2 https://t.co/P8E3x0tkMs</t>
+  </si>
+  <si>
+    <t>Can Silicon Valley compete in Amazon's 'Olympics' for a new HQ? https://t.co/SdpFQVrF93 #AmazonHQ2</t>
+  </si>
+  <si>
+    <t>Wanna know how Amazon HQ2 will affect your financial life if your city lands it? https://t.co/6yB4IyWNF9 #NGW #AmazonHQ2 https://t.co/T724OBBfyG</t>
+  </si>
+  <si>
+    <t>Want to know how Amazon HQ2 will change the value of your home? Follow the link below to our FREE home value calculator! #realestate #AmazonHQ2 #Amazon #realestate #Arlington #Arlingtonrealestate 
+https://t.co/Du44QAUj1y https://t.co/6zQxadm29w</t>
+  </si>
+  <si>
+    <t>Starting a new HQ: Amazon selects 20 candidates suitable for the 2nd headquarters beyond Seattle. - Amazon Sellers Lawyer | Rosenbaum Famularo, PC - https://t.co/sbw55NNXxv #Amazon2ndHeadquarters #AmazonDroneDelivery #AmazonHQ2 #PrimeAirDeliverySystem https://t.co/Djp4W9NwYp</t>
+  </si>
+  <si>
+    <t>These U.S. cities have the best chance of being Amazonâ€™s second headquarters. https://t.co/BlBB6SVRnI #AmazonHQ2 https://t.co/Ncowjg4qjz</t>
+  </si>
+  <si>
+    <t>Who's here for an #amazonHQ2 betting pool??</t>
+  </si>
+  <si>
+    <t>@camilareads I'm trying to figure if/how it might relate to National Harbor. That was new too. #AmazonHQ2</t>
+  </si>
+  <si>
+    <t>Massive downtown Atlanta project aimed at #AmazonHQ2 to have public hearing https://t.co/lQq7hrSuQd</t>
+  </si>
+  <si>
+    <t>Dossiers on top @amazon execs, attention to @JeffBezos hatred for #Powerpoint and love of fitness, and a bid code-named for Amazon employee's dog: @jordanmgraham reviewed 1000s of pages of Mass. officials' emails in frenzied weeks before #AmazonHQ2 bid https://t.co/BO1ivSPCpB</t>
+  </si>
+  <si>
+    <t>See what @TheMilwaukee7, @MayorOfMKE is up against when it comes to bidding for #AmazonHQ2. Highest bid is $7B. https://t.co/0E40APJrqP</t>
+  </si>
+  <si>
+    <t>Great debate last night on the lessons learned from #AmazonHQ2. Opinions and POVs varied greatly, even amongst 'allies.' Worth watching! @CivicHall #HQ2Forum https://t.co/i9ca9qjbMT</t>
+  </si>
+  <si>
+    <t>Does anyone have any clue about when the #AmazonHQ2 'winner' will be announced? Surely somebody #OnHere has a little insider info?</t>
+  </si>
+  <si>
+    <t>Been keeping up with the #AmazonHQ2 hype? Here's a handy overview from @BrookingsInst about what you need to know https://t.co/DgW1MJqfM5</t>
+  </si>
+  <si>
+    <t>.@marty_walsh (@MartyForBoston) won't debate @titojackson &amp;amp; he won't discuss his #AmazonHQ2 bid. Does he want 2 b Mayor or CIA dir? #bospoli https://t.co/teCcYkDSGL</t>
+  </si>
+  <si>
+    <t>Approximately 25,000 jobs to be spread in at least 17 cities after #Amazon cancels plans for #HQ2 in #NYC. #AmazonHQ2 @MyABJ
+https://t.co/xM4tAUQjUa</t>
+  </si>
+  <si>
+    <t>#Amazon hiring 1,000 at new #OpaLocka fulfillment center as #MiamiDade tries it hardest to land future #AmazonHQ2 @GuillermoGT51 @Telemundo51 https://t.co/YWba6lTQr8</t>
+  </si>
+  <si>
+    <t>Amazon Should Consider New York for HQ2, but Process Lacks Transparency https://t.co/0dnMgBg5gv #Amazon #AmazonHQ2 #BlackFriday #UpstateNY #business #retail https://t.co/n36n82XKdT</t>
+  </si>
+  <si>
+    <t>Same. Look I donâ€™t know if Bezos is shady. What I do know is that I donâ€™t have to leave my house to get toilet paper. #WelcomeToNashvilleAmazon #AmazonHQ2 (or whatever it is weâ€™re getting) https://t.co/aMdftCEqTE</t>
+  </si>
+  <si>
+    <t>Olympic-bid style excitement surrounds the #AmazonHQ2 decision, but raises a larger jobs question. https://t.co/L2zEitotvL</t>
+  </si>
+  <si>
+    <t>Boston will really need to pick up the slack if they hope to land #AmazonHQ2 https://t.co/NEIdL2rjTk</t>
+  </si>
+  <si>
+    <t>Why Chula Vista? Our schools. Our people. #WorkforceReady community w/ #GreatPublicSchools. Weâ€™d make a great team, @amazon, for #AmazonHQ2. https://t.co/78Tnry1ozo</t>
+  </si>
+  <si>
+    <t>How San Marcos Would Benefit from an Austin Amazon Headquarters #SMTX #SanMarcosTX #Amazon #AmazonHQ2 #AustinTX #TRACEtexas: https://t.co/fctHKufL2k https://t.co/I3YxtvL4qI</t>
+  </si>
+  <si>
+    <t>Shortly after Hurricane Harvey, Amazon called. We put together a tremendous proposal for #AmazonHQ2. We now have a competitive blueprint that highlights Houstonâ€™s strengths: diversity, spirit,  low-cost of living &amp;amp; a vibrant innovation corridor - Shellebarger at #AnnualMeeting</t>
+  </si>
+  <si>
+    <t>The reason we are in top #amazonhq2 is because of the work we have done to make our ecosystem a viable, collaborative place. #IndyStateOfTheRegion @amy_liuw</t>
+  </si>
+  <si>
+    <t>.@rasjbaraka: #Newark has the infrastructure, transit and talent necessary for #AmazonHQ2 #YesNewark https://t.co/bcXUjdfIvv</t>
+  </si>
+  <si>
+    <t>Iâ€™d like to see Columbus selected, as an Ohio native. 
+#amazonHQ2 https://t.co/xTCMiQdO7I</t>
+  </si>
+  <si>
+    <t>@amazon philly is amazing already and it's a city with tremendous momentum. Your potential here is unlimited. #amazonHQ2</t>
+  </si>
+  <si>
+    <t>Come to good 'ole ATX, @amazon! Amazon narrows the list of metro areas for its new headquarters to 20 https://t.co/ZkEx4zmAF7 #AmazonHQ2</t>
+  </si>
+  <si>
+    <t>Local politicians and vocal activists have killed the LIC #AmazonHQ2 project. Many benefits will now NOT come to NY. Is this #CutOffNoseToSpiteFace</t>
+  </si>
+  <si>
+    <t>@BonnieCrombie @insauga Let's do this! #MississaugaPrime #905 #AmazonHQ2 #mississauga https://t.co/1FfUTynyVz</t>
+  </si>
+  <si>
+    <t>Hey, @JeffBezos , pick Miami!! #VelshiRuhle #AmazonHQ2</t>
+  </si>
+  <si>
+    <t>WHY AMAZON PULLED OUT OF HQ2 IN QUEENS? Because of ANNOYING NEW YORKERS - Read the full article ðŸ“²(https://t.co/mBFCWIJKl3)
+.
+.
+Thatâ€™s 25,000 jobs lost. Nice job everyone who was against this. #AmazonHQ2 #Amazon #amazondeals #amazonfwt #shopify #ecommerce #onlinebusiness https://t.co/fkBRkJ2hY1</t>
+  </si>
+  <si>
+    <t>#BreakingNews --- This is #HUGE news for the #Raleigh &amp;amp; #Durham areas!!!  Wow!  #Amazon #AmazonHQ2 https://t.co/jQBOKN4QXs</t>
+  </si>
+  <si>
+    <t>AmazonHQ2 proposal nearly done. Great work by our team We see thousands of happy Amazonians in our future #AmazonHQ2 https://t.co/MicZNP7DPz</t>
+  </si>
+  <si>
+    <t>@ChicagolandCmbr President
+and CEO Lavin:  "As the voice of our regionâ€™s business community, we stand ready to dig deeper and show Amazon that #Chicago is the greatest city to live and work."
+#AmazonHQ2</t>
+  </si>
+  <si>
+    <t>@NMalliotakis @AOC That's what she wants...govt jobs for all-NOT private sector
+Socialists' mentality
+How many bartenders-retailers-restauranteurs etc looked forward to this move Sandy?
+25k+ employees paying TAXES to NY spending their money HERE
+Bravo @NYGovCuomo
+@NYCMayor @AOC
+#AmazonHQ2</t>
+  </si>
+  <si>
+    <t>I support @AOC and her position on key issues, but I agree with @SteveRattner and @andrewrsorkin on the economic data and implications of the decision on pushing out the #AmazonHQ2 https://t.co/sxIgntS7bw</t>
+  </si>
+  <si>
+    <t>@NHGOP @NHDems @GovChrisSununu Translation @NHGOP ashamed @GovChrissununu had to be shamed by @NHDems into going for #AmazonHQ2  #nhpolitics  btw NH needs Ma for rail line</t>
+  </si>
+  <si>
+    <t>#AOC strikes again! ðŸ˜ #Amazon #AmazonHQ2</t>
+  </si>
+  <si>
+    <t>@Alyssa_Milano What do we want? NO JOBS! When do we want them? NEVER! #AmazonHQ2 https://t.co/0xJj8F61Zd</t>
+  </si>
+  <si>
+    <t>Just think, people voted in a person who doesnâ€™t understand how a #taxcredit works to be their representative in #Congress @AOC thinks when we offer #Amazon 3billion that itâ€™s actual money that we have! #AmazonHQ2 #aocislunacy #LiberalLogic #HappyValentinesDay2019 #Socialism #aoc</t>
+  </si>
+  <si>
+    <t>Wherever #AmazonHQ2 winds up, housing prices could go up. What the impact could be on renters and homeowners is an important question that needs to be explored.</t>
+  </si>
+  <si>
+    <t>Amazon National Landing Bezo, since Trump can't bring the coal miners jobs to Virginia, I will. 
+At least the employees will have clean clothes and  clean lungs.
+#JeffBezo #Bezo #AmazonHQ2 
+#Amazon</t>
+  </si>
+  <si>
+    <t>1/ Rome chose Constantinople "for strategic reasons, not because Athens &amp;amp; Smyrna had failed to cough up enough relocation grants" #AmazonHQ2</t>
+  </si>
+  <si>
+    <t>@ItsNotRevenge A letter to my representatives about #AmazonHQ2. https://t.co/E91Lq0AHay</t>
+  </si>
+  <si>
+    <t>$600M diverted into TIF funds is fucking unacceptable. I'm going to need at least four times that much to grease The Beeze and secure #AmazonHQ2.</t>
+  </si>
+  <si>
+    <t>When Amazon gets around to announcing the "winning" city, the only winners will be Amazon and a handful of pols and cronies. The losers will be the citizens of said city and the free market.
+#HQ2
+#AmazonHQ2</t>
+  </si>
+  <si>
+    <t>Good article re: #AmazonHQ2 in #Vancouver - What Urban Anchors Like #Amazon &amp;amp; #Google Owe Their Cities https://t.co/94LMKDb2js via @CityLab https://t.co/4bioQMfxgN</t>
+  </si>
+  <si>
+    <t>Viewpoint: Why #AmazonHQ2 is a bad idea for Boston https://t.co/Wp88EttEnN</t>
+  </si>
+  <si>
+    <t>What do you give the richest man in the world? If you're the state of Maryland, you give him $8.5bn. #corporatewelfare #amazon #amazonhq2 https://t.co/kyUDH4sQ3H</t>
+  </si>
+  <si>
+    <t>Which is why New York told them to piss up a rope.
+This isn't complicated. #AmazonHQ2 https://t.co/lve5d85zZH</t>
+  </si>
+  <si>
+    <t>Each year, local governments spend nearly $100 billion to move headquarters and factories between states. Itâ€™s a wasteful exercise that requires a national solution.
+Super Insightful By | @DKThomp of @TheAtlantic) https://t.co/5QrfDzucIZ
+#AmazonHQ2</t>
+  </si>
+  <si>
+    <t>@amazon don't move AmazonHQ2 to Austin, we're full</t>
+  </si>
+  <si>
+    <t>@fox5dc #AmazonHQ2 ceo gets to be even richer while the tax payer fits the bill; how wonderful.  People wonder why the rich get richer and the poor stay poor.</t>
+  </si>
+  <si>
+    <t>Amazon making poorer cities pander to them and essentially beg them to come there only to choose NYC, a place that absolutely doesnâ€™t need/want them, is one of the cruelest and most disgusting ways to go about gentrifying another community.
+#AmazonHQ2 @amazon</t>
+  </si>
+  <si>
+    <t>Despite studies, reports, numerous economic development discussions, #AmazonHQ2 picks the 'safe' cities in the country to move to. Either way, entire massive cities bowing &amp;amp; kissing the feet of Bezos is shameful. Serve your residents, not some capitalist shill. #ThursdayThoughts</t>
+  </si>
+  <si>
+    <t>Good &amp;gt; â€œWeâ€™re not going to buy Amazon to come here." // #AmazonHQ2 #topoli #onpoli https://t.co/ijTkfOqK0J</t>
+  </si>
+  <si>
+    <t>@FOX4 so #AmazonHQ2 wants to improve it's carbon footprint by 2030ðŸ™„ really? You'd think that a company that pays no taxes could do better then that ðŸ¤¬</t>
+  </si>
+  <si>
+    <t>36-yr old resident Crystal City Maha Hilal leads @dcmuslimjustice and told me the #forusnotamazon coalition opposes #AmazonHQ2 in Arl b/c of the "threat of development, unemployment and shutting down local business, but also the threat of increased deportation and surveillance." https://t.co/QVVW8eImjI</t>
+  </si>
+  <si>
+    <t>Did you know that Washington, DC made the list of 20 finalists being considered as the home to #AmazonHQ2? If selected, the DC Metro area can expect to see home prices rise as little as 1.8% or as much as 3.5%! #Amazon #DC #EluvialEnterprise #RealEstate https://t.co/qWiPvZpihB</t>
+  </si>
+  <si>
+    <t>#AmazonHQ2 https://t.co/Rzde8WTSBa</t>
+  </si>
+  <si>
+    <t>Does #Amazon still want to move to the #AmazonHQ2 to #Atlanta after the #atlantapoweroutage hahaha This isn't the first fiasco the city has had.</t>
+  </si>
+  <si>
+    <t>Welcome to the neighborhood @amazon! https://t.co/cbWL4UKhuZ #AmazonHQ2 #CrystalCity https://t.co/kAtBDzSfmU</t>
+  </si>
+  <si>
+    <t>Congrats to the 20 final cities! #AmazonHQ2 https://t.co/EBQJ24JK1L</t>
+  </si>
+  <si>
+    <t>Toronto made the list!
+#amazonHQ2 https://t.co/X0QHJIR4jD</t>
+  </si>
+  <si>
+    <t>@Forbes @TerryMcAuliffe I think you did it. Congratulations !!!! You were an excellent governor on Virginia's business front. Thank you!  #AmazonHQ2 #VirginiaAmazonHQ2</t>
+  </si>
+  <si>
+    <t>Amazon on the East River https://t.co/XzcNvY8SSt #HappyThanksgiving #AmazonHQ2</t>
+  </si>
+  <si>
+    <t>Host Andy Ockershausen's guest in this new #OurTown podcast interview is @esmith_UA CEO of @UrbanAlliance  Smith leads her org to provide HS Seniors with internship opportunities and experiences they would not otherwise have. #AmazonHQ2 are you listening?  https://t.co/58JC9prCnT</t>
+  </si>
+  <si>
+    <t>Watch: New video, website aimed to lure Amazon HQ2, new business to Detroit https://t.co/7tyWo6x9Uu https://t.co/MWPoc80zqO</t>
+  </si>
+  <si>
+    <t>Wouldnâ€™t it make sense to have #AmazonHQ2 in Asia?</t>
+  </si>
+  <si>
+    <t>Could #Baltimore and #Maryland be in the running? Plenty of space at #SparrowsPoint? #amazonhq2 #amazon #hq2 /cc @LarryHogan @MayorPugh50 https://t.co/L2vvMRw9qs</t>
+  </si>
+  <si>
+    <t>I love how there's 15 individual cities, two in the NYC area...and then THREE finalists in the DC metro. Seems to me like one of those is the favorite.
+#AmazonHQ2 https://t.co/P9fZZBXIBW</t>
+  </si>
+  <si>
+    <t>@Pdzielinski @Peggynoonannyc @JimmyVanBramer Jimmy Van Two Faces! Fighting for (drag) Queens! #AmazonHQ2</t>
+  </si>
+  <si>
+    <t>New #AmazonHQ2 prediction, in descending order: Pittsburgh, Baltimore, Philadelphia, Toronto, Chicago and Boston. https://t.co/HXh7s8FCoQ</t>
+  </si>
+  <si>
+    <t>"What's shocking to me is once again she shows how little she understands not just economics but even unemployment."
+.@JoeNBC is absolutely correct. At this point, @AOC's economic illiteracy is incontrovertible. 
+#FridayThoughts
+#AmazonHQ2
+#AOC https://t.co/to9MJKnboE</t>
+  </si>
+  <si>
+    <t>Deep within a secret lair, a meeting falls silent as Bezos speaks up. "They put YES on the cover. That's all we need to know." #AmazonHQ2 https://t.co/BOBbsAzY5T</t>
+  </si>
+  <si>
+    <t>So how about all the people who shook the rafters about #AmazonHQ2 come on out and do for #Local3...
+It's been 690 day!
+Anyone? 
+#CountMeIn
+#CorporateGreed
+#spectrumstrike
+#IWantMylocal3 https://t.co/uBHeowSkOM</t>
+  </si>
+  <si>
+    <t>My statement on the #AmazonHQ2 deal. https://t.co/IrNaQEluoR</t>
+  </si>
+  <si>
+    <t>Is starting a business in one of #Amazon 2d HQ short list a good idea? https://t.co/qs2Qma1g2A via @gdnnetwork #SmallBusinessNews #AmazonHQ2 #Entrepreneur</t>
+  </si>
+  <si>
+    <t>Top 3 for #AmazonHQ2 :
+1. Austin TX
+2. Atlanta GA
+3. Rochester NY
+Then...
+895. San Juan PR https://t.co/GmAIv9d6GU</t>
+  </si>
+  <si>
+    <t>Yeah, and DON'T GET ANY IDEAS EITHER, TORONTO. #5billionUSDis6billionCAD. https://t.co/QgQCY5UMVR #AmazonHQ2 https://t.co/AJeG0cwH6C</t>
+  </si>
+  <si>
+    <t>If #AmazonHQ2 comes to Toronto I'm just going to bang on its doors yelling "GET. BETTER. SVOD. CONTENT. GET. BETTER. SVOD. CONTENT." until the Starbucks manager comes out of the building and informs me that I'm nowhere near the Amazon building and I should really put pants on.</t>
+  </si>
+  <si>
+    <t>Weâ€™ve got Trumpâ€™s pee tape ... Amazon workers whizzing in bottles.
+We are in a golden age of urine.
+#pee #trump #amazon #AmazonHQ2</t>
+  </si>
+  <si>
+    <t>Red Line riders need a moment of zen.. https://t.co/V6q9VSOo2X #AmazonHQ2 #bospoli
+Marty Walsh: "T is reliable" https://t.co/E460xFQh9B</t>
+  </si>
+  <si>
+    <t>#AmazonHQ2
+#Entrepreneur #expert #idea What If People Would Actually Pay You For Your Advice? Get Your FREE Copy Of EXPERT SECRETS Now...
+https://t.co/dzKWcmLGlb https://t.co/PC3PI0OXhW</t>
+  </si>
+  <si>
+    <t>https://t.co/lNasP4FQSj #tacomawa #metroparks #tacomaDrone #amazonHQ2 #tacomaLove #DJI #MAVICPRO #UAV #PNW #BNSF #BREAKING #CityOfTacoma</t>
+  </si>
+  <si>
+    <t>@AmazonHQ2 @nypost @JeffBezos @wapo @HuffPostDetroit @KellyannePolls @POTUS</t>
+  </si>
+  <si>
+    <t>@Isabellancali1 @nbcsnl @SteveCarell â€œFour chapter elevens!â€ ðŸ¤£ #snl #bezos #AmazonHQ2 #nbcsnl</t>
+  </si>
+  <si>
+    <t>https://t.co/7jLtHPhBbw
+Please Help ðŸ™â˜ºï¸ðŸ™
+Buy from the Link Above or Share the Product Info who is interested.
+Likeâ¤ï¸ &amp;amp; Retweet ðŸ’«
+Lightning Deal
+ #Sony Portable #Bluetooth #Speakers 
+Mrp â‚¹12990
+Deal Price â‚¹6999
+4ï¸âƒ£6ï¸âƒ£Percent Off
+#AmazonHQ2 #AmazonIndia #Amazon #AmazonPrime https://t.co/7PmWi6DiYd</t>
+  </si>
+  <si>
+    <t>Urgent Alert &amp;gt; Embassy #CyberActions &amp;gt; #ZimbabweElephantsÂ #ZimWildTrade &amp;gt; Send the Mail &amp;gt; #Zimbabwe &amp;amp; #China via .@AnimalDefenders &amp;gt;Â https://t.co/dlxd9ixjvI
+#AmazonHQ2 #OlympicGames2018</t>
   </si>
 </sst>
 </file>
@@ -759,10 +1121,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1054,7 +1412,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1062,10 +1420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAC3EA04-5EC1-424E-9B2B-C0DA2383D215}">
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:I101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1074,13 +1432,14 @@
     <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="149.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="255.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1094,19 +1453,22 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>219</v>
+      </c>
+      <c r="F1" t="s">
         <v>205</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>206</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>209</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1119,20 +1481,23 @@
       <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="F2" t="s">
         <v>6</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>207</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>210</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1146,19 +1511,22 @@
         <v>8</v>
       </c>
       <c r="E3" t="s">
+        <v>221</v>
+      </c>
+      <c r="F3" t="s">
         <v>9</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>207</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>211</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -1172,19 +1540,22 @@
         <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>222</v>
       </c>
       <c r="F4" t="s">
-        <v>208</v>
+        <v>12</v>
       </c>
       <c r="G4" t="s">
+        <v>208</v>
+      </c>
+      <c r="H4" t="s">
         <v>211</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -1195,19 +1566,22 @@
         <v>1634</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>223</v>
       </c>
       <c r="F5" t="s">
-        <v>208</v>
+        <v>12</v>
       </c>
       <c r="G5" t="s">
+        <v>208</v>
+      </c>
+      <c r="H5" t="s">
         <v>211</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -1220,17 +1594,20 @@
       <c r="D6" t="s">
         <v>15</v>
       </c>
-      <c r="E6" t="s">
-        <v>12</v>
+      <c r="E6" s="1" t="s">
+        <v>224</v>
       </c>
       <c r="F6" t="s">
-        <v>208</v>
+        <v>12</v>
       </c>
       <c r="G6" t="s">
+        <v>208</v>
+      </c>
+      <c r="H6" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -1244,16 +1621,19 @@
         <v>17</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>225</v>
       </c>
       <c r="F7" t="s">
-        <v>208</v>
+        <v>12</v>
       </c>
       <c r="G7" t="s">
+        <v>208</v>
+      </c>
+      <c r="H7" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -1267,16 +1647,19 @@
         <v>19</v>
       </c>
       <c r="E8" t="s">
+        <v>226</v>
+      </c>
+      <c r="F8" t="s">
         <v>9</v>
       </c>
-      <c r="F8" t="s">
-        <v>208</v>
-      </c>
       <c r="G8" t="s">
+        <v>208</v>
+      </c>
+      <c r="H8" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -1290,16 +1673,19 @@
         <v>21</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>227</v>
       </c>
       <c r="F9" t="s">
-        <v>208</v>
+        <v>12</v>
       </c>
       <c r="G9" t="s">
+        <v>208</v>
+      </c>
+      <c r="H9" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -1313,16 +1699,19 @@
         <v>23</v>
       </c>
       <c r="E10" t="s">
+        <v>228</v>
+      </c>
+      <c r="F10" t="s">
         <v>6</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>207</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -1335,17 +1724,20 @@
       <c r="D11" t="s">
         <v>25</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="F11" t="s">
         <v>9</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>207</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -1359,16 +1751,19 @@
         <v>27</v>
       </c>
       <c r="E12" t="s">
+        <v>230</v>
+      </c>
+      <c r="F12" t="s">
         <v>9</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>207</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -1382,16 +1777,19 @@
         <v>29</v>
       </c>
       <c r="E13" t="s">
+        <v>231</v>
+      </c>
+      <c r="F13" t="s">
         <v>9</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>207</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>30</v>
       </c>
@@ -1404,17 +1802,20 @@
       <c r="D14" t="s">
         <v>31</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="F14" t="s">
         <v>6</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>207</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>33</v>
       </c>
@@ -1428,16 +1829,19 @@
         <v>34</v>
       </c>
       <c r="E15" t="s">
+        <v>233</v>
+      </c>
+      <c r="F15" t="s">
         <v>6</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>207</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>35</v>
       </c>
@@ -1451,16 +1855,19 @@
         <v>36</v>
       </c>
       <c r="E16" t="s">
-        <v>12</v>
+        <v>234</v>
       </c>
       <c r="F16" t="s">
-        <v>208</v>
+        <v>12</v>
       </c>
       <c r="G16" t="s">
+        <v>208</v>
+      </c>
+      <c r="H16" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>37</v>
       </c>
@@ -1474,16 +1881,19 @@
         <v>38</v>
       </c>
       <c r="E17" t="s">
-        <v>12</v>
+        <v>235</v>
       </c>
       <c r="F17" t="s">
-        <v>208</v>
+        <v>12</v>
       </c>
       <c r="G17" t="s">
+        <v>208</v>
+      </c>
+      <c r="H17" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>39</v>
       </c>
@@ -1497,16 +1907,19 @@
         <v>40</v>
       </c>
       <c r="E18" t="s">
-        <v>12</v>
+        <v>236</v>
       </c>
       <c r="F18" t="s">
-        <v>208</v>
+        <v>12</v>
       </c>
       <c r="G18" t="s">
+        <v>208</v>
+      </c>
+      <c r="H18" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>42</v>
       </c>
@@ -1520,16 +1933,19 @@
         <v>43</v>
       </c>
       <c r="E19" t="s">
-        <v>12</v>
+        <v>237</v>
       </c>
       <c r="F19" t="s">
-        <v>208</v>
+        <v>12</v>
       </c>
       <c r="G19" t="s">
+        <v>208</v>
+      </c>
+      <c r="H19" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>44</v>
       </c>
@@ -1543,16 +1959,19 @@
         <v>45</v>
       </c>
       <c r="E20" t="s">
+        <v>238</v>
+      </c>
+      <c r="F20" t="s">
         <v>9</v>
       </c>
-      <c r="F20" t="s">
-        <v>208</v>
-      </c>
       <c r="G20" t="s">
+        <v>208</v>
+      </c>
+      <c r="H20" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>46</v>
       </c>
@@ -1566,16 +1985,19 @@
         <v>47</v>
       </c>
       <c r="E21" t="s">
+        <v>239</v>
+      </c>
+      <c r="F21" t="s">
         <v>9</v>
       </c>
-      <c r="F21" t="s">
-        <v>208</v>
-      </c>
       <c r="G21" t="s">
+        <v>208</v>
+      </c>
+      <c r="H21" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>48</v>
       </c>
@@ -1589,16 +2011,19 @@
         <v>49</v>
       </c>
       <c r="E22" t="s">
-        <v>12</v>
+        <v>240</v>
       </c>
       <c r="F22" t="s">
-        <v>208</v>
+        <v>12</v>
       </c>
       <c r="G22" t="s">
+        <v>208</v>
+      </c>
+      <c r="H22" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>50</v>
       </c>
@@ -1612,16 +2037,19 @@
         <v>51</v>
       </c>
       <c r="E23" t="s">
-        <v>12</v>
+        <v>241</v>
       </c>
       <c r="F23" t="s">
-        <v>208</v>
+        <v>12</v>
       </c>
       <c r="G23" t="s">
+        <v>208</v>
+      </c>
+      <c r="H23" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>52</v>
       </c>
@@ -1635,16 +2063,19 @@
         <v>53</v>
       </c>
       <c r="E24" t="s">
+        <v>242</v>
+      </c>
+      <c r="F24" t="s">
         <v>6</v>
       </c>
-      <c r="F24" t="s">
-        <v>208</v>
-      </c>
       <c r="G24" t="s">
+        <v>208</v>
+      </c>
+      <c r="H24" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>54</v>
       </c>
@@ -1658,16 +2089,19 @@
         <v>55</v>
       </c>
       <c r="E25" t="s">
+        <v>243</v>
+      </c>
+      <c r="F25" t="s">
         <v>6</v>
       </c>
-      <c r="F25" t="s">
-        <v>208</v>
-      </c>
       <c r="G25" t="s">
+        <v>208</v>
+      </c>
+      <c r="H25" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>57</v>
       </c>
@@ -1680,17 +2114,20 @@
       <c r="D26" t="s">
         <v>58</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="F26" t="s">
         <v>41</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
         <v>207</v>
       </c>
-      <c r="G26" t="s">
+      <c r="H26" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>59</v>
       </c>
@@ -1704,16 +2141,19 @@
         <v>60</v>
       </c>
       <c r="E27" t="s">
+        <v>245</v>
+      </c>
+      <c r="F27" t="s">
         <v>9</v>
       </c>
-      <c r="F27" t="s">
-        <v>208</v>
-      </c>
       <c r="G27" t="s">
+        <v>208</v>
+      </c>
+      <c r="H27" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>61</v>
       </c>
@@ -1727,19 +2167,22 @@
         <v>62</v>
       </c>
       <c r="E28" t="s">
+        <v>246</v>
+      </c>
+      <c r="F28" t="s">
         <v>9</v>
       </c>
-      <c r="F28" t="s">
-        <v>208</v>
-      </c>
       <c r="G28" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="H28" t="s">
+        <v>212</v>
+      </c>
+      <c r="I28" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>63</v>
       </c>
@@ -1753,19 +2196,22 @@
         <v>64</v>
       </c>
       <c r="E29" t="s">
-        <v>12</v>
+        <v>247</v>
       </c>
       <c r="F29" t="s">
-        <v>208</v>
+        <v>12</v>
       </c>
       <c r="G29" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="H29" t="s">
+        <v>212</v>
+      </c>
+      <c r="I29" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>65</v>
       </c>
@@ -1779,19 +2225,22 @@
         <v>66</v>
       </c>
       <c r="E30" t="s">
+        <v>248</v>
+      </c>
+      <c r="F30" t="s">
         <v>9</v>
       </c>
-      <c r="F30" t="s">
+      <c r="G30" t="s">
         <v>207</v>
       </c>
-      <c r="G30" t="s">
-        <v>212</v>
-      </c>
       <c r="H30" t="s">
+        <v>212</v>
+      </c>
+      <c r="I30" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>67</v>
       </c>
@@ -1805,19 +2254,22 @@
         <v>68</v>
       </c>
       <c r="E31" t="s">
+        <v>249</v>
+      </c>
+      <c r="F31" t="s">
         <v>6</v>
       </c>
-      <c r="F31" t="s">
-        <v>208</v>
-      </c>
       <c r="G31" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="H31" t="s">
+        <v>212</v>
+      </c>
+      <c r="I31" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>69</v>
       </c>
@@ -1831,19 +2283,22 @@
         <v>70</v>
       </c>
       <c r="E32" t="s">
+        <v>250</v>
+      </c>
+      <c r="F32" t="s">
         <v>9</v>
       </c>
-      <c r="F32" t="s">
+      <c r="G32" t="s">
         <v>207</v>
       </c>
-      <c r="G32" t="s">
-        <v>212</v>
-      </c>
       <c r="H32" t="s">
+        <v>212</v>
+      </c>
+      <c r="I32" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>71</v>
       </c>
@@ -1857,19 +2312,22 @@
         <v>72</v>
       </c>
       <c r="E33" t="s">
+        <v>251</v>
+      </c>
+      <c r="F33" t="s">
         <v>32</v>
       </c>
-      <c r="F33" t="s">
+      <c r="G33" t="s">
         <v>207</v>
       </c>
-      <c r="G33" t="s">
-        <v>212</v>
-      </c>
       <c r="H33" t="s">
+        <v>212</v>
+      </c>
+      <c r="I33" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>73</v>
       </c>
@@ -1883,19 +2341,22 @@
         <v>74</v>
       </c>
       <c r="E34" t="s">
+        <v>252</v>
+      </c>
+      <c r="F34" t="s">
         <v>6</v>
       </c>
-      <c r="F34" t="s">
+      <c r="G34" t="s">
         <v>207</v>
       </c>
-      <c r="G34" t="s">
-        <v>212</v>
-      </c>
       <c r="H34" t="s">
+        <v>212</v>
+      </c>
+      <c r="I34" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>75</v>
       </c>
@@ -1909,19 +2370,22 @@
         <v>76</v>
       </c>
       <c r="E35" t="s">
+        <v>253</v>
+      </c>
+      <c r="F35" t="s">
         <v>6</v>
       </c>
-      <c r="F35" t="s">
+      <c r="G35" t="s">
         <v>207</v>
       </c>
-      <c r="G35" t="s">
-        <v>212</v>
-      </c>
       <c r="H35" t="s">
+        <v>212</v>
+      </c>
+      <c r="I35" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>77</v>
       </c>
@@ -1935,19 +2399,22 @@
         <v>78</v>
       </c>
       <c r="E36" t="s">
+        <v>254</v>
+      </c>
+      <c r="F36" t="s">
         <v>6</v>
       </c>
-      <c r="F36" t="s">
+      <c r="G36" t="s">
         <v>207</v>
       </c>
-      <c r="G36" t="s">
-        <v>212</v>
-      </c>
       <c r="H36" t="s">
+        <v>212</v>
+      </c>
+      <c r="I36" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>79</v>
       </c>
@@ -1960,20 +2427,23 @@
       <c r="D37" t="s">
         <v>80</v>
       </c>
-      <c r="E37" t="s">
-        <v>12</v>
+      <c r="E37" s="1" t="s">
+        <v>255</v>
       </c>
       <c r="F37" t="s">
-        <v>208</v>
+        <v>12</v>
       </c>
       <c r="G37" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="H37" t="s">
+        <v>212</v>
+      </c>
+      <c r="I37" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>81</v>
       </c>
@@ -1987,19 +2457,22 @@
         <v>82</v>
       </c>
       <c r="E38" t="s">
-        <v>12</v>
+        <v>256</v>
       </c>
       <c r="F38" t="s">
-        <v>208</v>
+        <v>12</v>
       </c>
       <c r="G38" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="H38" t="s">
+        <v>212</v>
+      </c>
+      <c r="I38" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>83</v>
       </c>
@@ -2013,19 +2486,22 @@
         <v>84</v>
       </c>
       <c r="E39" t="s">
-        <v>12</v>
+        <v>257</v>
       </c>
       <c r="F39" t="s">
-        <v>208</v>
+        <v>12</v>
       </c>
       <c r="G39" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="H39" t="s">
+        <v>212</v>
+      </c>
+      <c r="I39" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>85</v>
       </c>
@@ -2039,19 +2515,22 @@
         <v>86</v>
       </c>
       <c r="E40" t="s">
-        <v>12</v>
+        <v>258</v>
       </c>
       <c r="F40" t="s">
-        <v>208</v>
+        <v>12</v>
       </c>
       <c r="G40" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="H40" t="s">
+        <v>212</v>
+      </c>
+      <c r="I40" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>87</v>
       </c>
@@ -2065,19 +2544,22 @@
         <v>88</v>
       </c>
       <c r="E41" t="s">
-        <v>12</v>
+        <v>259</v>
       </c>
       <c r="F41" t="s">
-        <v>208</v>
+        <v>12</v>
       </c>
       <c r="G41" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="H41" t="s">
+        <v>212</v>
+      </c>
+      <c r="I41" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>89</v>
       </c>
@@ -2091,19 +2573,22 @@
         <v>90</v>
       </c>
       <c r="E42" t="s">
-        <v>12</v>
+        <v>260</v>
       </c>
       <c r="F42" t="s">
-        <v>208</v>
+        <v>12</v>
       </c>
       <c r="G42" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="H42" t="s">
+        <v>212</v>
+      </c>
+      <c r="I42" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>91</v>
       </c>
@@ -2116,20 +2601,23 @@
       <c r="D43" t="s">
         <v>92</v>
       </c>
-      <c r="E43" t="s">
+      <c r="E43" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="F43" t="s">
         <v>6</v>
       </c>
-      <c r="F43" t="s">
-        <v>208</v>
-      </c>
       <c r="G43" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="H43" t="s">
+        <v>212</v>
+      </c>
+      <c r="I43" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>93</v>
       </c>
@@ -2143,19 +2631,22 @@
         <v>94</v>
       </c>
       <c r="E44" t="s">
+        <v>262</v>
+      </c>
+      <c r="F44" t="s">
         <v>9</v>
       </c>
-      <c r="F44" t="s">
-        <v>208</v>
-      </c>
       <c r="G44" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="H44" t="s">
+        <v>212</v>
+      </c>
+      <c r="I44" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>95</v>
       </c>
@@ -2169,19 +2660,22 @@
         <v>96</v>
       </c>
       <c r="E45" t="s">
+        <v>263</v>
+      </c>
+      <c r="F45" t="s">
         <v>6</v>
       </c>
-      <c r="F45" t="s">
-        <v>208</v>
-      </c>
       <c r="G45" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="H45" t="s">
+        <v>212</v>
+      </c>
+      <c r="I45" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>97</v>
       </c>
@@ -2194,20 +2688,23 @@
       <c r="D46" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E46" t="s">
+      <c r="E46" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="F46" t="s">
         <v>9</v>
       </c>
-      <c r="F46" t="s">
-        <v>208</v>
-      </c>
       <c r="G46" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="H46" t="s">
+        <v>212</v>
+      </c>
+      <c r="I46" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>99</v>
       </c>
@@ -2220,20 +2717,23 @@
       <c r="D47" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="E47" t="s">
-        <v>12</v>
+      <c r="E47" s="1" t="s">
+        <v>265</v>
       </c>
       <c r="F47" t="s">
-        <v>208</v>
+        <v>12</v>
       </c>
       <c r="G47" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="H47" t="s">
+        <v>212</v>
+      </c>
+      <c r="I47" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>101</v>
       </c>
@@ -2247,19 +2747,22 @@
         <v>102</v>
       </c>
       <c r="E48" t="s">
+        <v>266</v>
+      </c>
+      <c r="F48" t="s">
         <v>41</v>
       </c>
-      <c r="F48" t="s">
-        <v>208</v>
-      </c>
       <c r="G48" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="H48" t="s">
+        <v>212</v>
+      </c>
+      <c r="I48" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>103</v>
       </c>
@@ -2273,19 +2776,22 @@
         <v>104</v>
       </c>
       <c r="E49" t="s">
-        <v>12</v>
+        <v>267</v>
       </c>
       <c r="F49" t="s">
-        <v>208</v>
+        <v>12</v>
       </c>
       <c r="G49" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="H49" t="s">
+        <v>212</v>
+      </c>
+      <c r="I49" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>105</v>
       </c>
@@ -2299,19 +2805,22 @@
         <v>106</v>
       </c>
       <c r="E50" t="s">
-        <v>12</v>
+        <v>268</v>
       </c>
       <c r="F50" t="s">
+        <v>12</v>
+      </c>
+      <c r="G50" t="s">
         <v>207</v>
       </c>
-      <c r="G50" t="s">
-        <v>212</v>
-      </c>
       <c r="H50" t="s">
+        <v>212</v>
+      </c>
+      <c r="I50" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>107</v>
       </c>
@@ -2325,19 +2834,22 @@
         <v>108</v>
       </c>
       <c r="E51" t="s">
-        <v>12</v>
+        <v>269</v>
       </c>
       <c r="F51" t="s">
-        <v>208</v>
+        <v>12</v>
       </c>
       <c r="G51" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="H51" t="s">
+        <v>212</v>
+      </c>
+      <c r="I51" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>109</v>
       </c>
@@ -2348,19 +2860,22 @@
         <v>100</v>
       </c>
       <c r="E52" t="s">
-        <v>12</v>
+        <v>270</v>
       </c>
       <c r="F52" t="s">
-        <v>208</v>
+        <v>12</v>
       </c>
       <c r="G52" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="H52" t="s">
+        <v>212</v>
+      </c>
+      <c r="I52" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>110</v>
       </c>
@@ -2374,19 +2889,22 @@
         <v>111</v>
       </c>
       <c r="E53" t="s">
+        <v>271</v>
+      </c>
+      <c r="F53" t="s">
         <v>41</v>
       </c>
-      <c r="F53" t="s">
+      <c r="G53" t="s">
         <v>207</v>
       </c>
-      <c r="G53" t="s">
-        <v>212</v>
-      </c>
       <c r="H53" t="s">
+        <v>212</v>
+      </c>
+      <c r="I53" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>112</v>
       </c>
@@ -2399,20 +2917,23 @@
       <c r="D54" t="s">
         <v>113</v>
       </c>
-      <c r="E54" t="s">
-        <v>12</v>
+      <c r="E54" s="1" t="s">
+        <v>272</v>
       </c>
       <c r="F54" t="s">
-        <v>208</v>
+        <v>12</v>
       </c>
       <c r="G54" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="H54" t="s">
+        <v>212</v>
+      </c>
+      <c r="I54" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>114</v>
       </c>
@@ -2426,19 +2947,22 @@
         <v>115</v>
       </c>
       <c r="E55" t="s">
+        <v>273</v>
+      </c>
+      <c r="F55" t="s">
         <v>9</v>
       </c>
-      <c r="F55" t="s">
-        <v>208</v>
-      </c>
       <c r="G55" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="H55" t="s">
+        <v>212</v>
+      </c>
+      <c r="I55" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>116</v>
       </c>
@@ -2452,19 +2976,22 @@
         <v>117</v>
       </c>
       <c r="E56" t="s">
-        <v>12</v>
+        <v>274</v>
       </c>
       <c r="F56" t="s">
-        <v>208</v>
+        <v>12</v>
       </c>
       <c r="G56" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="H56" t="s">
+        <v>212</v>
+      </c>
+      <c r="I56" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>118</v>
       </c>
@@ -2478,19 +3005,22 @@
         <v>119</v>
       </c>
       <c r="E57" t="s">
-        <v>12</v>
+        <v>275</v>
       </c>
       <c r="F57" t="s">
-        <v>208</v>
+        <v>12</v>
       </c>
       <c r="G57" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="H57" t="s">
+        <v>212</v>
+      </c>
+      <c r="I57" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>120</v>
       </c>
@@ -2503,20 +3033,23 @@
       <c r="D58" t="s">
         <v>121</v>
       </c>
-      <c r="E58" t="s">
-        <v>12</v>
+      <c r="E58" s="1" t="s">
+        <v>276</v>
       </c>
       <c r="F58" t="s">
-        <v>208</v>
+        <v>12</v>
       </c>
       <c r="G58" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="H58" t="s">
+        <v>212</v>
+      </c>
+      <c r="I58" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>122</v>
       </c>
@@ -2530,19 +3063,22 @@
         <v>123</v>
       </c>
       <c r="E59" t="s">
+        <v>277</v>
+      </c>
+      <c r="F59" t="s">
         <v>6</v>
       </c>
-      <c r="F59" t="s">
-        <v>208</v>
-      </c>
       <c r="G59" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="H59" t="s">
+        <v>212</v>
+      </c>
+      <c r="I59" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>124</v>
       </c>
@@ -2556,19 +3092,22 @@
         <v>125</v>
       </c>
       <c r="E60" t="s">
+        <v>278</v>
+      </c>
+      <c r="F60" t="s">
         <v>32</v>
       </c>
-      <c r="F60" t="s">
+      <c r="G60" t="s">
         <v>207</v>
       </c>
-      <c r="G60" t="s">
-        <v>212</v>
-      </c>
       <c r="H60" t="s">
+        <v>212</v>
+      </c>
+      <c r="I60" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>126</v>
       </c>
@@ -2582,19 +3121,22 @@
         <v>127</v>
       </c>
       <c r="E61" t="s">
+        <v>279</v>
+      </c>
+      <c r="F61" t="s">
         <v>6</v>
       </c>
-      <c r="F61" t="s">
+      <c r="G61" t="s">
         <v>207</v>
       </c>
-      <c r="G61" t="s">
-        <v>212</v>
-      </c>
       <c r="H61" t="s">
+        <v>212</v>
+      </c>
+      <c r="I61" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>128</v>
       </c>
@@ -2607,20 +3149,23 @@
       <c r="D62" t="s">
         <v>129</v>
       </c>
-      <c r="E62" t="s">
-        <v>12</v>
+      <c r="E62" s="1" t="s">
+        <v>280</v>
       </c>
       <c r="F62" t="s">
-        <v>208</v>
+        <v>12</v>
       </c>
       <c r="G62" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="H62" t="s">
+        <v>212</v>
+      </c>
+      <c r="I62" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>130</v>
       </c>
@@ -2633,20 +3178,23 @@
       <c r="D63" t="s">
         <v>131</v>
       </c>
-      <c r="E63" t="s">
-        <v>12</v>
+      <c r="E63" s="1" t="s">
+        <v>281</v>
       </c>
       <c r="F63" t="s">
-        <v>208</v>
+        <v>12</v>
       </c>
       <c r="G63" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="H63" t="s">
+        <v>212</v>
+      </c>
+      <c r="I63" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>132</v>
       </c>
@@ -2657,19 +3205,22 @@
         <v>636</v>
       </c>
       <c r="E64" t="s">
-        <v>12</v>
+        <v>282</v>
       </c>
       <c r="F64" t="s">
-        <v>208</v>
+        <v>12</v>
       </c>
       <c r="G64" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="H64" t="s">
+        <v>212</v>
+      </c>
+      <c r="I64" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>133</v>
       </c>
@@ -2680,19 +3231,22 @@
         <v>403474</v>
       </c>
       <c r="E65" t="s">
-        <v>12</v>
+        <v>283</v>
       </c>
       <c r="F65" t="s">
-        <v>208</v>
+        <v>12</v>
       </c>
       <c r="G65" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="H65" t="s">
+        <v>212</v>
+      </c>
+      <c r="I65" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>134</v>
       </c>
@@ -2705,20 +3259,23 @@
       <c r="D66" t="s">
         <v>135</v>
       </c>
-      <c r="E66" t="s">
-        <v>12</v>
+      <c r="E66" s="1" t="s">
+        <v>284</v>
       </c>
       <c r="F66" t="s">
-        <v>208</v>
+        <v>12</v>
       </c>
       <c r="G66" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="H66" t="s">
+        <v>212</v>
+      </c>
+      <c r="I66" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>136</v>
       </c>
@@ -2732,19 +3289,22 @@
         <v>137</v>
       </c>
       <c r="E67" t="s">
-        <v>12</v>
+        <v>285</v>
       </c>
       <c r="F67" t="s">
-        <v>208</v>
+        <v>12</v>
       </c>
       <c r="G67" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="H67" t="s">
+        <v>212</v>
+      </c>
+      <c r="I67" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>138</v>
       </c>
@@ -2758,19 +3318,22 @@
         <v>139</v>
       </c>
       <c r="E68" t="s">
+        <v>286</v>
+      </c>
+      <c r="F68" t="s">
         <v>9</v>
       </c>
-      <c r="F68" t="s">
-        <v>208</v>
-      </c>
       <c r="G68" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="H68" t="s">
+        <v>212</v>
+      </c>
+      <c r="I68" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>140</v>
       </c>
@@ -2784,19 +3347,22 @@
         <v>141</v>
       </c>
       <c r="E69" t="s">
-        <v>12</v>
+        <v>287</v>
       </c>
       <c r="F69" t="s">
-        <v>208</v>
+        <v>12</v>
       </c>
       <c r="G69" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="H69" t="s">
+        <v>212</v>
+      </c>
+      <c r="I69" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>142</v>
       </c>
@@ -2810,19 +3376,22 @@
         <v>143</v>
       </c>
       <c r="E70" t="s">
+        <v>288</v>
+      </c>
+      <c r="F70" t="s">
         <v>9</v>
       </c>
-      <c r="F70" t="s">
-        <v>208</v>
-      </c>
       <c r="G70" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="H70" t="s">
+        <v>212</v>
+      </c>
+      <c r="I70" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>144</v>
       </c>
@@ -2836,19 +3405,22 @@
         <v>145</v>
       </c>
       <c r="E71" t="s">
+        <v>289</v>
+      </c>
+      <c r="F71" t="s">
         <v>6</v>
       </c>
-      <c r="F71" t="s">
+      <c r="G71" t="s">
         <v>207</v>
       </c>
-      <c r="G71" t="s">
-        <v>212</v>
-      </c>
       <c r="H71" t="s">
+        <v>212</v>
+      </c>
+      <c r="I71" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>146</v>
       </c>
@@ -2862,19 +3434,22 @@
         <v>147</v>
       </c>
       <c r="E72" t="s">
+        <v>290</v>
+      </c>
+      <c r="F72" t="s">
         <v>6</v>
       </c>
-      <c r="F72" t="s">
+      <c r="G72" t="s">
         <v>207</v>
       </c>
-      <c r="G72" t="s">
-        <v>212</v>
-      </c>
       <c r="H72" t="s">
+        <v>212</v>
+      </c>
+      <c r="I72" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>148</v>
       </c>
@@ -2888,19 +3463,22 @@
         <v>149</v>
       </c>
       <c r="E73" t="s">
-        <v>12</v>
+        <v>291</v>
       </c>
       <c r="F73" t="s">
-        <v>208</v>
+        <v>12</v>
       </c>
       <c r="G73" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="H73" t="s">
+        <v>212</v>
+      </c>
+      <c r="I73" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>150</v>
       </c>
@@ -2914,19 +3492,22 @@
         <v>151</v>
       </c>
       <c r="E74" t="s">
+        <v>292</v>
+      </c>
+      <c r="F74" t="s">
         <v>32</v>
       </c>
-      <c r="F74" t="s">
+      <c r="G74" t="s">
         <v>207</v>
       </c>
-      <c r="G74" t="s">
-        <v>212</v>
-      </c>
       <c r="H74" t="s">
+        <v>212</v>
+      </c>
+      <c r="I74" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>152</v>
       </c>
@@ -2940,19 +3521,22 @@
         <v>153</v>
       </c>
       <c r="E75" t="s">
+        <v>293</v>
+      </c>
+      <c r="F75" t="s">
         <v>6</v>
       </c>
-      <c r="F75" t="s">
+      <c r="G75" t="s">
         <v>207</v>
       </c>
-      <c r="G75" t="s">
-        <v>212</v>
-      </c>
       <c r="H75" t="s">
+        <v>212</v>
+      </c>
+      <c r="I75" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>154</v>
       </c>
@@ -2965,20 +3549,23 @@
       <c r="D76" t="s">
         <v>155</v>
       </c>
-      <c r="E76" t="s">
-        <v>12</v>
+      <c r="E76" s="1" t="s">
+        <v>294</v>
       </c>
       <c r="F76" t="s">
-        <v>208</v>
+        <v>12</v>
       </c>
       <c r="G76" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="H76" t="s">
+        <v>212</v>
+      </c>
+      <c r="I76" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>156</v>
       </c>
@@ -2992,19 +3579,22 @@
         <v>157</v>
       </c>
       <c r="E77" t="s">
-        <v>12</v>
+        <v>295</v>
       </c>
       <c r="F77" t="s">
-        <v>208</v>
+        <v>12</v>
       </c>
       <c r="G77" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="H77" t="s">
+        <v>212</v>
+      </c>
+      <c r="I77" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>158</v>
       </c>
@@ -3018,19 +3608,22 @@
         <v>159</v>
       </c>
       <c r="E78" t="s">
+        <v>296</v>
+      </c>
+      <c r="F78" t="s">
         <v>6</v>
       </c>
-      <c r="F78" t="s">
-        <v>208</v>
-      </c>
       <c r="G78" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="H78" t="s">
+        <v>212</v>
+      </c>
+      <c r="I78" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>160</v>
       </c>
@@ -3044,19 +3637,22 @@
         <v>161</v>
       </c>
       <c r="E79" t="s">
+        <v>297</v>
+      </c>
+      <c r="F79" t="s">
         <v>9</v>
       </c>
-      <c r="F79" t="s">
+      <c r="G79" t="s">
         <v>207</v>
       </c>
-      <c r="G79" t="s">
-        <v>212</v>
-      </c>
       <c r="H79" t="s">
+        <v>212</v>
+      </c>
+      <c r="I79" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>162</v>
       </c>
@@ -3070,19 +3666,22 @@
         <v>163</v>
       </c>
       <c r="E80" t="s">
+        <v>298</v>
+      </c>
+      <c r="F80" t="s">
         <v>6</v>
       </c>
-      <c r="F80" t="s">
+      <c r="G80" t="s">
         <v>207</v>
       </c>
-      <c r="G80" t="s">
-        <v>212</v>
-      </c>
       <c r="H80" t="s">
+        <v>212</v>
+      </c>
+      <c r="I80" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>164</v>
       </c>
@@ -3096,19 +3695,22 @@
         <v>165</v>
       </c>
       <c r="E81" t="s">
-        <v>12</v>
+        <v>299</v>
       </c>
       <c r="F81" t="s">
-        <v>208</v>
+        <v>12</v>
       </c>
       <c r="G81" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="H81" t="s">
+        <v>212</v>
+      </c>
+      <c r="I81" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>166</v>
       </c>
@@ -3122,19 +3724,22 @@
         <v>167</v>
       </c>
       <c r="E82" t="s">
+        <v>300</v>
+      </c>
+      <c r="F82" t="s">
         <v>6</v>
       </c>
-      <c r="F82" t="s">
-        <v>208</v>
-      </c>
       <c r="G82" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="H82" t="s">
+        <v>212</v>
+      </c>
+      <c r="I82" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>168</v>
       </c>
@@ -3147,20 +3752,23 @@
       <c r="D83" t="s">
         <v>169</v>
       </c>
-      <c r="E83" t="s">
+      <c r="E83" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="F83" t="s">
         <v>9</v>
       </c>
-      <c r="F83" t="s">
-        <v>208</v>
-      </c>
       <c r="G83" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="H83" t="s">
+        <v>212</v>
+      </c>
+      <c r="I83" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>170</v>
       </c>
@@ -3174,19 +3782,22 @@
         <v>171</v>
       </c>
       <c r="E84" t="s">
-        <v>12</v>
+        <v>302</v>
       </c>
       <c r="F84" t="s">
-        <v>208</v>
+        <v>12</v>
       </c>
       <c r="G84" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="H84" t="s">
+        <v>212</v>
+      </c>
+      <c r="I84" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>172</v>
       </c>
@@ -3200,16 +3811,19 @@
         <v>173</v>
       </c>
       <c r="E85" t="s">
+        <v>303</v>
+      </c>
+      <c r="F85" t="s">
         <v>9</v>
       </c>
-      <c r="F85" t="s">
-        <v>208</v>
-      </c>
       <c r="G85" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+        <v>208</v>
+      </c>
+      <c r="H85" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>174</v>
       </c>
@@ -3222,20 +3836,23 @@
       <c r="D86" t="s">
         <v>175</v>
       </c>
-      <c r="E86" t="s">
-        <v>12</v>
+      <c r="E86" s="1" t="s">
+        <v>304</v>
       </c>
       <c r="F86" t="s">
-        <v>208</v>
+        <v>12</v>
       </c>
       <c r="G86" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="H86" t="s">
+        <v>212</v>
+      </c>
+      <c r="I86" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>176</v>
       </c>
@@ -3249,19 +3866,22 @@
         <v>177</v>
       </c>
       <c r="E87" t="s">
-        <v>12</v>
+        <v>305</v>
       </c>
       <c r="F87" t="s">
-        <v>208</v>
+        <v>12</v>
       </c>
       <c r="G87" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="H87" t="s">
+        <v>212</v>
+      </c>
+      <c r="I87" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:9" ht="144" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>178</v>
       </c>
@@ -3274,20 +3894,23 @@
       <c r="D88" t="s">
         <v>179</v>
       </c>
-      <c r="E88" t="s">
-        <v>12</v>
+      <c r="E88" s="1" t="s">
+        <v>306</v>
       </c>
       <c r="F88" t="s">
-        <v>208</v>
+        <v>12</v>
       </c>
       <c r="G88" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="H88" t="s">
+        <v>212</v>
+      </c>
+      <c r="I88" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>180</v>
       </c>
@@ -3301,19 +3924,22 @@
         <v>181</v>
       </c>
       <c r="E89" t="s">
+        <v>307</v>
+      </c>
+      <c r="F89" t="s">
         <v>56</v>
       </c>
-      <c r="F89" t="s">
-        <v>208</v>
-      </c>
       <c r="G89" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="H89" t="s">
+        <v>212</v>
+      </c>
+      <c r="I89" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>182</v>
       </c>
@@ -3327,19 +3953,22 @@
         <v>183</v>
       </c>
       <c r="E90" t="s">
-        <v>12</v>
+        <v>308</v>
       </c>
       <c r="F90" t="s">
-        <v>208</v>
+        <v>12</v>
       </c>
       <c r="G90" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="H90" t="s">
+        <v>212</v>
+      </c>
+      <c r="I90" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>184</v>
       </c>
@@ -3352,20 +3981,23 @@
       <c r="D91" t="s">
         <v>185</v>
       </c>
-      <c r="E91" t="s">
-        <v>12</v>
+      <c r="E91" s="1" t="s">
+        <v>309</v>
       </c>
       <c r="F91" t="s">
-        <v>208</v>
+        <v>12</v>
       </c>
       <c r="G91" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="H91" t="s">
+        <v>212</v>
+      </c>
+      <c r="I91" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>186</v>
       </c>
@@ -3379,19 +4011,22 @@
         <v>187</v>
       </c>
       <c r="E92" t="s">
-        <v>12</v>
+        <v>310</v>
       </c>
       <c r="F92" t="s">
-        <v>208</v>
+        <v>12</v>
       </c>
       <c r="G92" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="H92" t="s">
+        <v>212</v>
+      </c>
+      <c r="I92" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>188</v>
       </c>
@@ -3405,16 +4040,19 @@
         <v>189</v>
       </c>
       <c r="E93" t="s">
-        <v>12</v>
+        <v>311</v>
       </c>
       <c r="F93" t="s">
-        <v>208</v>
+        <v>12</v>
       </c>
       <c r="G93" t="s">
+        <v>208</v>
+      </c>
+      <c r="H93" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>190</v>
       </c>
@@ -3427,17 +4065,20 @@
       <c r="D94" t="s">
         <v>191</v>
       </c>
-      <c r="E94" t="s">
-        <v>12</v>
+      <c r="E94" s="1" t="s">
+        <v>312</v>
       </c>
       <c r="F94" t="s">
+        <v>12</v>
+      </c>
+      <c r="G94" t="s">
         <v>207</v>
       </c>
-      <c r="G94" t="s">
+      <c r="H94" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>193</v>
       </c>
@@ -3450,17 +4091,20 @@
       <c r="D95" t="s">
         <v>194</v>
       </c>
-      <c r="E95" t="s">
-        <v>12</v>
+      <c r="E95" s="1" t="s">
+        <v>313</v>
       </c>
       <c r="F95" t="s">
-        <v>208</v>
+        <v>12</v>
       </c>
       <c r="G95" t="s">
+        <v>208</v>
+      </c>
+      <c r="H95" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>195</v>
       </c>
@@ -3470,17 +4114,20 @@
       <c r="C96">
         <v>404</v>
       </c>
-      <c r="E96" t="s">
+      <c r="E96" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="F96" t="s">
         <v>32</v>
       </c>
-      <c r="F96" t="s">
+      <c r="G96" t="s">
         <v>207</v>
       </c>
-      <c r="G96" t="s">
+      <c r="H96" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>196</v>
       </c>
@@ -3491,16 +4138,19 @@
         <v>927</v>
       </c>
       <c r="E97" t="s">
-        <v>12</v>
+        <v>315</v>
       </c>
       <c r="F97" t="s">
-        <v>208</v>
+        <v>12</v>
       </c>
       <c r="G97" t="s">
+        <v>208</v>
+      </c>
+      <c r="H97" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>197</v>
       </c>
@@ -3514,16 +4164,19 @@
         <v>198</v>
       </c>
       <c r="E98" t="s">
-        <v>12</v>
+        <v>316</v>
       </c>
       <c r="F98" t="s">
-        <v>208</v>
+        <v>12</v>
       </c>
       <c r="G98" t="s">
+        <v>208</v>
+      </c>
+      <c r="H98" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>199</v>
       </c>
@@ -3537,16 +4190,19 @@
         <v>200</v>
       </c>
       <c r="E99" t="s">
-        <v>12</v>
+        <v>317</v>
       </c>
       <c r="F99" t="s">
-        <v>208</v>
+        <v>12</v>
       </c>
       <c r="G99" t="s">
+        <v>208</v>
+      </c>
+      <c r="H99" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:8" ht="144" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>201</v>
       </c>
@@ -3559,17 +4215,20 @@
       <c r="D100" t="s">
         <v>202</v>
       </c>
-      <c r="E100" t="s">
-        <v>192</v>
+      <c r="E100" s="1" t="s">
+        <v>318</v>
       </c>
       <c r="F100" t="s">
         <v>192</v>
       </c>
       <c r="G100" t="s">
+        <v>192</v>
+      </c>
+      <c r="H100" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>203</v>
       </c>
@@ -3581,6 +4240,9 @@
       </c>
       <c r="D101" t="s">
         <v>204</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>319</v>
       </c>
     </row>
   </sheetData>
